--- a/Admission/control_numbers.xlsx
+++ b/Admission/control_numbers.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>User ID</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>pamtena8@gmail.com</t>
+  </si>
+  <si>
+    <t>2025thescript@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -377,7 +380,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +452,17 @@
       </c>
       <c r="C6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>71564</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Admission/control_numbers.xlsx
+++ b/Admission/control_numbers.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>User ID</t>
   </si>
@@ -26,22 +26,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>megangeline08@gmail.com</t>
-  </si>
-  <si>
-    <t>fabianmeg74@gmail.com</t>
-  </si>
-  <si>
     <t>fabian.megangeline2003@gmail.com</t>
-  </si>
-  <si>
-    <t>shanleygalo0000@gmail.com</t>
-  </si>
-  <si>
-    <t>pamtena8@gmail.com</t>
-  </si>
-  <si>
-    <t>2025thescript@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -380,7 +365,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -401,68 +386,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>31143</v>
+        <v>38710</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>21664</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>13416</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>74283</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>67395</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>71564</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
